--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J2">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N2">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q2">
-        <v>22.55924783612394</v>
+        <v>0.2714291075573333</v>
       </c>
       <c r="R2">
-        <v>22.55924783612394</v>
+        <v>2.442861968016</v>
       </c>
       <c r="S2">
-        <v>0.04622030507064158</v>
+        <v>0.0004548058583732642</v>
       </c>
       <c r="T2">
-        <v>0.04622030507064158</v>
+        <v>0.0004548058583732645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J3">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N3">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q3">
-        <v>70.75559070310968</v>
+        <v>0.6634032215606667</v>
       </c>
       <c r="R3">
-        <v>70.75559070310968</v>
+        <v>5.970628994046</v>
       </c>
       <c r="S3">
-        <v>0.1449669338050537</v>
+        <v>0.001111596594575828</v>
       </c>
       <c r="T3">
-        <v>0.1449669338050537</v>
+        <v>0.001111596594575828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J4">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N4">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q4">
-        <v>27.25028597839745</v>
+        <v>0.26933157844</v>
       </c>
       <c r="R4">
-        <v>27.25028597839745</v>
+        <v>2.42398420596</v>
       </c>
       <c r="S4">
-        <v>0.05583149492984883</v>
+        <v>0.0004512912444128945</v>
       </c>
       <c r="T4">
-        <v>0.05583149492984883</v>
+        <v>0.0004512912444128947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H5">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I5">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J5">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N5">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q5">
-        <v>27.7095008517855</v>
+        <v>0.2569078944395555</v>
       </c>
       <c r="R5">
-        <v>27.7095008517855</v>
+        <v>2.312171049956</v>
       </c>
       <c r="S5">
-        <v>0.05677235305132327</v>
+        <v>0.0004304741540248018</v>
       </c>
       <c r="T5">
-        <v>0.05677235305132327</v>
+        <v>0.0004304741540248021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H6">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I6">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J6">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N6">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q6">
-        <v>3.744195942482264</v>
+        <v>0.04317997699866667</v>
       </c>
       <c r="R6">
-        <v>3.744195942482264</v>
+        <v>0.388619792988</v>
       </c>
       <c r="S6">
-        <v>0.007671261026206399</v>
+        <v>7.235224947003225E-05</v>
       </c>
       <c r="T6">
-        <v>0.007671261026206399</v>
+        <v>7.235224947003228E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H7">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I7">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J7">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N7">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q7">
-        <v>50.08191740194447</v>
+        <v>0.5102599324439999</v>
       </c>
       <c r="R7">
-        <v>50.08191740194447</v>
+        <v>4.592339391996</v>
       </c>
       <c r="S7">
-        <v>0.1026098705797218</v>
+        <v>0.0008549901248879794</v>
       </c>
       <c r="T7">
-        <v>0.1026098705797218</v>
+        <v>0.00085499012488798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H8">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N8">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q8">
-        <v>28.56774414259003</v>
+        <v>31.07702969689866</v>
       </c>
       <c r="R8">
-        <v>28.56774414259003</v>
+        <v>279.693267272088</v>
       </c>
       <c r="S8">
-        <v>0.05853075683384193</v>
+        <v>0.05207258460297566</v>
       </c>
       <c r="T8">
-        <v>0.05853075683384193</v>
+        <v>0.05207258460297569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H9">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N9">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q9">
-        <v>89.60084248143785</v>
+        <v>75.95575066725033</v>
       </c>
       <c r="R9">
-        <v>89.60084248143785</v>
+        <v>683.6017560052529</v>
       </c>
       <c r="S9">
-        <v>0.1835778526022931</v>
+        <v>0.1272712447514773</v>
       </c>
       <c r="T9">
-        <v>0.1835778526022931</v>
+        <v>0.1272712447514773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H10">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N10">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q10">
-        <v>34.5082071573634</v>
+        <v>30.83687500142</v>
       </c>
       <c r="R10">
-        <v>34.5082071573634</v>
+        <v>277.53187501278</v>
       </c>
       <c r="S10">
-        <v>0.07070181922024037</v>
+        <v>0.05167018206257579</v>
       </c>
       <c r="T10">
-        <v>0.07070181922024037</v>
+        <v>0.0516701820625758</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H11">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N11">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q11">
-        <v>35.08973066846269</v>
+        <v>29.41443656030644</v>
       </c>
       <c r="R11">
-        <v>35.08973066846269</v>
+        <v>264.729929042758</v>
       </c>
       <c r="S11">
-        <v>0.07189326825630796</v>
+        <v>0.04928674816333146</v>
       </c>
       <c r="T11">
-        <v>0.07189326825630796</v>
+        <v>0.04928674816333149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H12">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J12">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N12">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q12">
-        <v>4.741436083399806</v>
+        <v>4.943852336159333</v>
       </c>
       <c r="R12">
-        <v>4.741436083399806</v>
+        <v>44.494671025434</v>
       </c>
       <c r="S12">
-        <v>0.009714447212054778</v>
+        <v>0.00828390523644436</v>
       </c>
       <c r="T12">
-        <v>0.009714447212054778</v>
+        <v>0.008283905236444363</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H13">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J13">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N13">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O13">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P13">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q13">
-        <v>63.42088233181537</v>
+        <v>58.42174856044199</v>
       </c>
       <c r="R13">
-        <v>63.42088233181537</v>
+        <v>525.795737043978</v>
       </c>
       <c r="S13">
-        <v>0.1299392847899765</v>
+        <v>0.09789131954496222</v>
       </c>
       <c r="T13">
-        <v>0.1299392847899765</v>
+        <v>0.09789131954496227</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H14">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N14">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O14">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P14">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q14">
-        <v>3.354441042494353</v>
+        <v>3.387116647013333</v>
       </c>
       <c r="R14">
-        <v>3.354441042494353</v>
+        <v>30.48404982312</v>
       </c>
       <c r="S14">
-        <v>0.006872715325078367</v>
+        <v>0.005675443241583364</v>
       </c>
       <c r="T14">
-        <v>0.006872715325078367</v>
+        <v>0.005675443241583368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H15">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N15">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P15">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q15">
-        <v>10.52098275459272</v>
+        <v>8.278493473496667</v>
       </c>
       <c r="R15">
-        <v>10.52098275459272</v>
+        <v>74.50644126147</v>
       </c>
       <c r="S15">
-        <v>0.02155581764483979</v>
+        <v>0.01387142065983407</v>
       </c>
       <c r="T15">
-        <v>0.02155581764483979</v>
+        <v>0.01387142065983407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H16">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N16">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O16">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P16">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q16">
-        <v>4.051973646003904</v>
+        <v>3.3609419458</v>
       </c>
       <c r="R16">
-        <v>4.051973646003904</v>
+        <v>30.2484775122</v>
       </c>
       <c r="S16">
-        <v>0.008301848510951008</v>
+        <v>0.005631584984964814</v>
       </c>
       <c r="T16">
-        <v>0.008301848510951008</v>
+        <v>0.005631584984964816</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H17">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J17">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N17">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O17">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P17">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q17">
-        <v>4.120256473064747</v>
+        <v>3.205908952935555</v>
       </c>
       <c r="R17">
-        <v>4.120256473064747</v>
+        <v>28.85318057642</v>
       </c>
       <c r="S17">
-        <v>0.008441749145970597</v>
+        <v>0.005371812132928314</v>
       </c>
       <c r="T17">
-        <v>0.008441749145970597</v>
+        <v>0.005371812132928318</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H18">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J18">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N18">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O18">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P18">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q18">
-        <v>0.5567421676396327</v>
+        <v>0.5388354264066666</v>
       </c>
       <c r="R18">
-        <v>0.5567421676396327</v>
+        <v>4.84951883766</v>
       </c>
       <c r="S18">
-        <v>0.001140676011049818</v>
+        <v>0.0009028711431659673</v>
       </c>
       <c r="T18">
-        <v>0.001140676011049818</v>
+        <v>0.0009028711431659678</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.88887</v>
+      </c>
+      <c r="I19">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J19">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.113102</v>
+      </c>
+      <c r="N19">
+        <v>30.339306</v>
+      </c>
+      <c r="O19">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P19">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q19">
+        <v>6.367444991579999</v>
+      </c>
+      <c r="R19">
+        <v>57.30700492422</v>
+      </c>
+      <c r="S19">
+        <v>0.01066927313397432</v>
+      </c>
+      <c r="T19">
+        <v>0.01066927313397433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.352184</v>
+      </c>
+      <c r="H20">
+        <v>1.056552</v>
+      </c>
+      <c r="I20">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J20">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.379592</v>
+      </c>
+      <c r="N20">
+        <v>16.138776</v>
+      </c>
+      <c r="O20">
+        <v>0.1347369221116526</v>
+      </c>
+      <c r="P20">
+        <v>0.1347369221116527</v>
+      </c>
+      <c r="Q20">
+        <v>1.894606228928</v>
+      </c>
+      <c r="R20">
+        <v>17.051456060352</v>
+      </c>
+      <c r="S20">
+        <v>0.003174596932441823</v>
+      </c>
+      <c r="T20">
+        <v>0.003174596932441825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.352184</v>
+      </c>
+      <c r="H21">
+        <v>1.056552</v>
+      </c>
+      <c r="I21">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J21">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.148327</v>
+      </c>
+      <c r="N21">
+        <v>39.444981</v>
+      </c>
+      <c r="O21">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="P21">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="Q21">
+        <v>4.630630396168</v>
+      </c>
+      <c r="R21">
+        <v>41.67567356551199</v>
+      </c>
+      <c r="S21">
+        <v>0.007759071424179009</v>
+      </c>
+      <c r="T21">
+        <v>0.007759071424179012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.352184</v>
+      </c>
+      <c r="H22">
+        <v>1.056552</v>
+      </c>
+      <c r="I22">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J22">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.33802</v>
+      </c>
+      <c r="N22">
+        <v>16.01406</v>
+      </c>
+      <c r="O22">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="P22">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="Q22">
+        <v>1.87996523568</v>
+      </c>
+      <c r="R22">
+        <v>16.91968712112</v>
+      </c>
+      <c r="S22">
+        <v>0.003150064524840007</v>
+      </c>
+      <c r="T22">
+        <v>0.003150064524840008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.352184</v>
+      </c>
+      <c r="H23">
+        <v>1.056552</v>
+      </c>
+      <c r="I23">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J23">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.091788666666666</v>
+      </c>
+      <c r="N23">
+        <v>15.275366</v>
+      </c>
+      <c r="O23">
+        <v>0.1275286179676195</v>
+      </c>
+      <c r="P23">
+        <v>0.1275286179676196</v>
+      </c>
+      <c r="Q23">
+        <v>1.793246499781333</v>
+      </c>
+      <c r="R23">
+        <v>16.139218498032</v>
+      </c>
+      <c r="S23">
+        <v>0.003004758851943054</v>
+      </c>
+      <c r="T23">
+        <v>0.003004758851943056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.352184</v>
+      </c>
+      <c r="H24">
+        <v>1.056552</v>
+      </c>
+      <c r="I24">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J24">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.855806</v>
+      </c>
+      <c r="N24">
+        <v>2.567418</v>
+      </c>
+      <c r="O24">
+        <v>0.02143446312744256</v>
+      </c>
+      <c r="P24">
+        <v>0.02143446312744257</v>
+      </c>
+      <c r="Q24">
+        <v>0.301401180304</v>
+      </c>
+      <c r="R24">
+        <v>2.712610622736</v>
+      </c>
+      <c r="S24">
+        <v>0.0005050269801808961</v>
+      </c>
+      <c r="T24">
+        <v>0.0005050269801808963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.352184</v>
+      </c>
+      <c r="H25">
+        <v>1.056552</v>
+      </c>
+      <c r="I25">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J25">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.113102</v>
+      </c>
+      <c r="N25">
+        <v>30.339306</v>
+      </c>
+      <c r="O25">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P25">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q25">
+        <v>3.561672714768</v>
+      </c>
+      <c r="R25">
+        <v>32.055054432912</v>
+      </c>
+      <c r="S25">
+        <v>0.005967928903655011</v>
+      </c>
+      <c r="T25">
+        <v>0.005967928903655014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H26">
+        <v>21.947639</v>
+      </c>
+      <c r="I26">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J26">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.379592</v>
+      </c>
+      <c r="N26">
+        <v>16.138776</v>
+      </c>
+      <c r="O26">
+        <v>0.1347369221116526</v>
+      </c>
+      <c r="P26">
+        <v>0.1347369221116527</v>
+      </c>
+      <c r="Q26">
+        <v>39.35644772776266</v>
+      </c>
+      <c r="R26">
+        <v>354.208029549864</v>
+      </c>
+      <c r="S26">
+        <v>0.06594555444856526</v>
+      </c>
+      <c r="T26">
+        <v>0.0659455544485653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H27">
+        <v>21.947639</v>
+      </c>
+      <c r="I27">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J27">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.148327</v>
+      </c>
+      <c r="N27">
+        <v>39.444981</v>
+      </c>
+      <c r="O27">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="P27">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="Q27">
+        <v>96.19157814998434</v>
+      </c>
+      <c r="R27">
+        <v>865.724203349859</v>
+      </c>
+      <c r="S27">
+        <v>0.1611783410500352</v>
+      </c>
+      <c r="T27">
+        <v>0.1611783410500352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="H19">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="I19">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="J19">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>9.159362987200661</v>
-      </c>
-      <c r="N19">
-        <v>9.159362987200661</v>
-      </c>
-      <c r="O19">
-        <v>0.2478067013542985</v>
-      </c>
-      <c r="P19">
-        <v>0.2478067013542985</v>
-      </c>
-      <c r="Q19">
-        <v>7.446916689787979</v>
-      </c>
-      <c r="R19">
-        <v>7.446916689787979</v>
-      </c>
-      <c r="S19">
-        <v>0.01525754598460016</v>
-      </c>
-      <c r="T19">
-        <v>0.01525754598460016</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H28">
+        <v>21.947639</v>
+      </c>
+      <c r="I28">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J28">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.33802</v>
+      </c>
+      <c r="N28">
+        <v>16.01406</v>
+      </c>
+      <c r="O28">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="P28">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="Q28">
+        <v>39.05231197826</v>
+      </c>
+      <c r="R28">
+        <v>351.47080780434</v>
+      </c>
+      <c r="S28">
+        <v>0.06543594543183394</v>
+      </c>
+      <c r="T28">
+        <v>0.06543594543183397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H29">
+        <v>21.947639</v>
+      </c>
+      <c r="I29">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J29">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.091788666666666</v>
+      </c>
+      <c r="N29">
+        <v>15.275366</v>
+      </c>
+      <c r="O29">
+        <v>0.1275286179676195</v>
+      </c>
+      <c r="P29">
+        <v>0.1275286179676196</v>
+      </c>
+      <c r="Q29">
+        <v>37.25091317343044</v>
+      </c>
+      <c r="R29">
+        <v>335.258218560874</v>
+      </c>
+      <c r="S29">
+        <v>0.06241752660020577</v>
+      </c>
+      <c r="T29">
+        <v>0.0624175266002058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H30">
+        <v>21.947639</v>
+      </c>
+      <c r="I30">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J30">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.855806</v>
+      </c>
+      <c r="N30">
+        <v>2.567418</v>
+      </c>
+      <c r="O30">
+        <v>0.02143446312744256</v>
+      </c>
+      <c r="P30">
+        <v>0.02143446312744257</v>
+      </c>
+      <c r="Q30">
+        <v>6.260973714011333</v>
+      </c>
+      <c r="R30">
+        <v>56.348763426102</v>
+      </c>
+      <c r="S30">
+        <v>0.01049087015714367</v>
+      </c>
+      <c r="T30">
+        <v>0.01049087015714368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H31">
+        <v>21.947639</v>
+      </c>
+      <c r="I31">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J31">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.113102</v>
+      </c>
+      <c r="N31">
+        <v>30.339306</v>
+      </c>
+      <c r="O31">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P31">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q31">
+        <v>73.986237288726</v>
+      </c>
+      <c r="R31">
+        <v>665.876135598534</v>
+      </c>
+      <c r="S31">
+        <v>0.1239711336073245</v>
+      </c>
+      <c r="T31">
+        <v>0.1239711336073246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H32">
+        <v>2.467466</v>
+      </c>
+      <c r="I32">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J32">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.379592</v>
+      </c>
+      <c r="N32">
+        <v>16.138776</v>
+      </c>
+      <c r="O32">
+        <v>0.1347369221116526</v>
+      </c>
+      <c r="P32">
+        <v>0.1347369221116527</v>
+      </c>
+      <c r="Q32">
+        <v>4.424653451290666</v>
+      </c>
+      <c r="R32">
+        <v>39.821881061616</v>
+      </c>
+      <c r="S32">
+        <v>0.007413937027713256</v>
+      </c>
+      <c r="T32">
+        <v>0.007413937027713259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H33">
+        <v>2.467466</v>
+      </c>
+      <c r="I33">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J33">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.148327</v>
+      </c>
+      <c r="N33">
+        <v>39.444981</v>
+      </c>
+      <c r="O33">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="P33">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="Q33">
+        <v>10.81434994312733</v>
+      </c>
+      <c r="R33">
+        <v>97.32914948814599</v>
+      </c>
+      <c r="S33">
+        <v>0.01812049471368497</v>
+      </c>
+      <c r="T33">
+        <v>0.01812049471368498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H34">
+        <v>2.467466</v>
+      </c>
+      <c r="I34">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J34">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.33802</v>
+      </c>
+      <c r="N34">
+        <v>16.01406</v>
+      </c>
+      <c r="O34">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="P34">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="Q34">
+        <v>4.39046095244</v>
+      </c>
+      <c r="R34">
+        <v>39.51414857196</v>
+      </c>
+      <c r="S34">
+        <v>0.007356644171653523</v>
+      </c>
+      <c r="T34">
+        <v>0.007356644171653525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H35">
+        <v>2.467466</v>
+      </c>
+      <c r="I35">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J35">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.091788666666666</v>
+      </c>
+      <c r="N35">
+        <v>15.275366</v>
+      </c>
+      <c r="O35">
+        <v>0.1275286179676195</v>
+      </c>
+      <c r="P35">
+        <v>0.1275286179676196</v>
+      </c>
+      <c r="Q35">
+        <v>4.18793847139511</v>
+      </c>
+      <c r="R35">
+        <v>37.691446242556</v>
+      </c>
+      <c r="S35">
+        <v>0.007017298065186115</v>
+      </c>
+      <c r="T35">
+        <v>0.007017298065186119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H36">
+        <v>2.467466</v>
+      </c>
+      <c r="I36">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J36">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.855806</v>
+      </c>
+      <c r="N36">
+        <v>2.567418</v>
+      </c>
+      <c r="O36">
+        <v>0.02143446312744256</v>
+      </c>
+      <c r="P36">
+        <v>0.02143446312744257</v>
+      </c>
+      <c r="Q36">
+        <v>0.7038907358653332</v>
+      </c>
+      <c r="R36">
+        <v>6.335016622787999</v>
+      </c>
+      <c r="S36">
+        <v>0.001179437361037634</v>
+      </c>
+      <c r="T36">
+        <v>0.001179437361037635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H37">
+        <v>2.467466</v>
+      </c>
+      <c r="I37">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J37">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.113102</v>
+      </c>
+      <c r="N37">
+        <v>30.339306</v>
+      </c>
+      <c r="O37">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P37">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q37">
+        <v>8.317911779844</v>
+      </c>
+      <c r="R37">
+        <v>74.86120601859599</v>
+      </c>
+      <c r="S37">
+        <v>0.01393746986441369</v>
+      </c>
+      <c r="T37">
+        <v>0.0139374698644137</v>
       </c>
     </row>
   </sheetData>
